--- a/Measurement Raw Data/Run277_Sep19_09-40_Sector 0_Hole A.xlsx
+++ b/Measurement Raw Data/Run277_Sep19_09-40_Sector 0_Hole A.xlsx
@@ -1,16 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/projects/ODU/Thesis/Measurement Raw Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F860F5EB-41AF-E246-8EA3-936E1F18BA9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="12435" windowHeight="6975" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27200" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Run Data" sheetId="1" r:id="rId1"/>
     <sheet name="Run Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -83,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,16 +131,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -146,6 +160,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -194,12 +211,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -229,12 +246,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -437,17 +454,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="13.5703125" customWidth="1"/>
+    <col min="1" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -475,7 +494,7 @@
         <v>-128.239</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -489,7 +508,7 @@
         <v>-134.36600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,7 +522,7 @@
         <v>-139.852</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -517,7 +536,7 @@
         <v>-146.10400000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -531,7 +550,7 @@
         <v>-151.916</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -545,7 +564,7 @@
         <v>-156.184</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -559,7 +578,7 @@
         <v>-160.24799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -573,7 +592,7 @@
         <v>-163.94</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -587,7 +606,7 @@
         <v>-167.59100000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -601,7 +620,7 @@
         <v>-171.36099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -615,7 +634,7 @@
         <v>-175.15600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -629,7 +648,7 @@
         <v>-178.893</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -643,7 +662,7 @@
         <v>-183.00200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -657,7 +676,7 @@
         <v>-186.62100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -671,7 +690,7 @@
         <v>-190.86799999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -685,7 +704,7 @@
         <v>-195.63800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -699,7 +718,7 @@
         <v>-200.95699999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -713,7 +732,7 @@
         <v>-207.05500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -727,7 +746,7 @@
         <v>-211.928</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -741,7 +760,7 @@
         <v>-218.09</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -755,7 +774,7 @@
         <v>-224.488</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -769,7 +788,7 @@
         <v>-230.773</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -783,7 +802,7 @@
         <v>-235.59399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -797,7 +816,7 @@
         <v>-239.322</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -811,7 +830,7 @@
         <v>-243.85400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -825,7 +844,7 @@
         <v>-247.54900000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -839,7 +858,7 @@
         <v>-250.93</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -853,7 +872,7 @@
         <v>-253.78100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -867,7 +886,7 @@
         <v>-256.29899999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -881,7 +900,7 @@
         <v>-261.13099999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -895,7 +914,7 @@
         <v>-265.40699999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -909,7 +928,7 @@
         <v>-268.82600000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -923,7 +942,7 @@
         <v>-271.27800000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -937,7 +956,7 @@
         <v>-287.14400000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -951,7 +970,7 @@
         <v>-295.596</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -965,7 +984,7 @@
         <v>-300.47899999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -979,7 +998,7 @@
         <v>-306.34100000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -993,7 +1012,7 @@
         <v>-312.05900000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1007,7 +1026,7 @@
         <v>-317.09800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1021,7 +1040,7 @@
         <v>-320.65899999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1035,7 +1054,7 @@
         <v>-322.69799999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1049,7 +1068,7 @@
         <v>-324.86700000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1063,7 +1082,7 @@
         <v>-327.47500000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1077,7 +1096,7 @@
         <v>-331.69600000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1091,7 +1110,7 @@
         <v>-338.80399999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1105,7 +1124,7 @@
         <v>-351.69900000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1119,7 +1138,7 @@
         <v>-347.37400000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1133,7 +1152,7 @@
         <v>-343.363</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1147,7 +1166,7 @@
         <v>-339.79</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1161,7 +1180,7 @@
         <v>-331.90499999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1175,7 +1194,7 @@
         <v>-321.92099999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1189,7 +1208,7 @@
         <v>-307.74700000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1203,7 +1222,7 @@
         <v>-292.22399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1217,7 +1236,7 @@
         <v>-274.96600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1231,7 +1250,7 @@
         <v>-256.51400000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1245,7 +1264,7 @@
         <v>-238.857</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1259,7 +1278,7 @@
         <v>-232.768</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1273,7 +1292,7 @@
         <v>-236.72499999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1287,7 +1306,7 @@
         <v>-238.02</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1301,7 +1320,7 @@
         <v>-235.33199999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1315,7 +1334,7 @@
         <v>-229.61500000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1329,7 +1348,7 @@
         <v>-226.024</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1343,7 +1362,7 @@
         <v>-218.554</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1357,7 +1376,7 @@
         <v>-211.47499999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1371,7 +1390,7 @@
         <v>-203.38900000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1385,7 +1404,7 @@
         <v>-194.74600000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1399,7 +1418,7 @@
         <v>-186.58</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1413,7 +1432,7 @@
         <v>-185.88</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1427,7 +1446,7 @@
         <v>-183.15199999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1441,7 +1460,7 @@
         <v>-173.92400000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1455,7 +1474,7 @@
         <v>-161.49600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1469,7 +1488,7 @@
         <v>-150.53899999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1483,7 +1502,7 @@
         <v>-139.88200000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1497,7 +1516,7 @@
         <v>-130.953</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1511,7 +1530,7 @@
         <v>-125.971</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1525,7 +1544,7 @@
         <v>-130.59299999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1539,7 +1558,7 @@
         <v>-118.84</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1553,7 +1572,7 @@
         <v>-108.28</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1567,7 +1586,7 @@
         <v>-97.697999999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1581,7 +1600,7 @@
         <v>-86.861000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1595,7 +1614,7 @@
         <v>-76.756</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1609,7 +1628,7 @@
         <v>-65.692999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1623,7 +1642,7 @@
         <v>-44.920999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1637,7 +1656,7 @@
         <v>-21.695</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1651,7 +1670,7 @@
         <v>-20.829000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1665,7 +1684,7 @@
         <v>-24.373999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1679,7 +1698,7 @@
         <v>-26.151</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1693,7 +1712,7 @@
         <v>-26.327999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1707,7 +1726,7 @@
         <v>-23.213999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1721,7 +1740,7 @@
         <v>-14.361000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1735,7 +1754,7 @@
         <v>-3.907</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1749,7 +1768,7 @@
         <v>3.2189999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1763,7 +1782,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1777,7 +1796,7 @@
         <v>6.6070000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1791,7 +1810,7 @@
         <v>11.254</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1805,7 +1824,7 @@
         <v>17.795999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1819,7 +1838,7 @@
         <v>26.05</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1833,7 +1852,7 @@
         <v>36.475999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1847,7 +1866,7 @@
         <v>46.383000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1861,7 +1880,7 @@
         <v>54.206000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1875,7 +1894,7 @@
         <v>59.156999999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1889,7 +1908,7 @@
         <v>69.046000000000006</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1903,7 +1922,7 @@
         <v>83.738</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1917,7 +1936,7 @@
         <v>100.34</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1931,7 +1950,7 @@
         <v>117.593</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1945,7 +1964,7 @@
         <v>129.80600000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1959,7 +1978,7 @@
         <v>136.05500000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1973,7 +1992,7 @@
         <v>136.173</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1987,7 +2006,7 @@
         <v>131.12</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2001,7 +2020,7 @@
         <v>123.279</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2015,7 +2034,7 @@
         <v>118.77200000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2029,7 +2048,7 @@
         <v>117.63800000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2043,7 +2062,7 @@
         <v>116.15600000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2057,7 +2076,7 @@
         <v>117.51300000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2071,7 +2090,7 @@
         <v>122.949</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2085,7 +2104,7 @@
         <v>126.223</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2099,7 +2118,7 @@
         <v>109.027</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2113,7 +2132,7 @@
         <v>102.992</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2127,7 +2146,7 @@
         <v>102.441</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2141,7 +2160,7 @@
         <v>101.937</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2155,7 +2174,7 @@
         <v>100.02200000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2169,7 +2188,7 @@
         <v>94.340999999999994</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2183,7 +2202,7 @@
         <v>90.084999999999994</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2197,7 +2216,7 @@
         <v>90.337999999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2211,7 +2230,7 @@
         <v>86.623999999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2225,7 +2244,7 @@
         <v>84.853999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2239,7 +2258,7 @@
         <v>95.186000000000007</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2253,7 +2272,7 @@
         <v>118.253</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2267,7 +2286,7 @@
         <v>138.65799999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2281,7 +2300,7 @@
         <v>156.75</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2295,7 +2314,7 @@
         <v>175.05099999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2309,7 +2328,7 @@
         <v>189.85599999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2323,7 +2342,7 @@
         <v>204.31700000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2337,7 +2356,7 @@
         <v>218.249</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2351,7 +2370,7 @@
         <v>232.607</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2365,7 +2384,7 @@
         <v>249.553</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2379,7 +2398,7 @@
         <v>264.40100000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2393,7 +2412,7 @@
         <v>279.65699999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2407,7 +2426,7 @@
         <v>296.06700000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2421,7 +2440,7 @@
         <v>305.90300000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2435,7 +2454,7 @@
         <v>305.99200000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2449,7 +2468,7 @@
         <v>308.94900000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2463,7 +2482,7 @@
         <v>311.16899999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2477,7 +2496,7 @@
         <v>312.09899999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2491,7 +2510,7 @@
         <v>310.90800000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2505,7 +2524,7 @@
         <v>308.49700000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2519,7 +2538,7 @@
         <v>305.15199999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2533,7 +2552,7 @@
         <v>303.60599999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2547,7 +2566,7 @@
         <v>309.113</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2561,7 +2580,7 @@
         <v>313.64100000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2575,7 +2594,7 @@
         <v>318.089</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2589,7 +2608,7 @@
         <v>318.98700000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2603,7 +2622,7 @@
         <v>316.17399999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2617,7 +2636,7 @@
         <v>319.00400000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2631,7 +2650,7 @@
         <v>321.67200000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2645,7 +2664,7 @@
         <v>321.56599999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2659,7 +2678,7 @@
         <v>323.01299999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2673,7 +2692,7 @@
         <v>323.97899999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2687,7 +2706,7 @@
         <v>325.53399999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2701,7 +2720,7 @@
         <v>325.81700000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2715,7 +2734,7 @@
         <v>325.59699999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2729,7 +2748,7 @@
         <v>321.82100000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2743,7 +2762,7 @@
         <v>315.55599999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2757,7 +2776,7 @@
         <v>309.40300000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2771,7 +2790,7 @@
         <v>303.02</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2785,7 +2804,7 @@
         <v>295.72199999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2799,7 +2818,7 @@
         <v>288.58600000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2813,7 +2832,7 @@
         <v>281.22199999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2827,7 +2846,7 @@
         <v>273.66199999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2841,7 +2860,7 @@
         <v>265.71600000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2855,7 +2874,7 @@
         <v>258.05399999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2869,7 +2888,7 @@
         <v>250.26300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2883,7 +2902,7 @@
         <v>242.16200000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2897,7 +2916,7 @@
         <v>237.15899999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2911,7 +2930,7 @@
         <v>233.709</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2925,7 +2944,7 @@
         <v>228.04499999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2939,7 +2958,7 @@
         <v>220.54599999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2953,7 +2972,7 @@
         <v>213.702</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2967,7 +2986,7 @@
         <v>206.82300000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2981,7 +3000,7 @@
         <v>199.977</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2995,7 +3014,7 @@
         <v>192.70500000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3009,7 +3028,7 @@
         <v>183.15600000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3023,7 +3042,7 @@
         <v>174.34399999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3037,7 +3056,7 @@
         <v>166.99199999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3051,7 +3070,7 @@
         <v>160.65299999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3065,7 +3084,7 @@
         <v>155.42400000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3079,7 +3098,7 @@
         <v>150.80199999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3093,7 +3112,7 @@
         <v>146.23400000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3107,7 +3126,7 @@
         <v>143.464</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3121,7 +3140,7 @@
         <v>140.87200000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3135,7 +3154,7 @@
         <v>137.446</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3149,7 +3168,7 @@
         <v>133.28200000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3163,7 +3182,7 @@
         <v>128.88200000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3177,7 +3196,7 @@
         <v>125.68</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3191,7 +3210,7 @@
         <v>125.971</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3205,7 +3224,7 @@
         <v>124.761</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3219,7 +3238,7 @@
         <v>122.69799999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3233,7 +3252,7 @@
         <v>119.497</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3247,7 +3266,7 @@
         <v>116.98399999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3268,17 +3287,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3286,7 +3308,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3294,7 +3316,7 @@
         <v>42997.403164000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3302,7 +3324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3310,7 +3332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3318,7 +3340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3326,7 +3348,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3334,7 +3356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -3342,13 +3364,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -3356,7 +3378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
